--- a/Simulations/SRIM_ProtonsVsFilters/RawData/ProtonSimParameters.xlsx
+++ b/Simulations/SRIM_ProtonsVsFilters/RawData/ProtonSimParameters.xlsx
@@ -1,13 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Documents\GitHub\xmm-newton\Simulations\SRIM_ProtonsVsFilters\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA11BA2-96C4-450B-A3CE-9FB2EB0D16F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Principale" sheetId="1" r:id="rId4"/>
+    <sheet name="Principale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="aCuEtxUuRr5Tc+Pkm3PJTST22uL2noUFqmU1hh0gHnA="/>
     </ext>
@@ -75,22 +94,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Arial Narrow&quot;"/>
     </font>
@@ -100,7 +124,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,41 +152,39 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -172,6 +194,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -183,6 +206,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -191,6 +218,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -199,120 +231,139 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -502,328 +553,330 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.57"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="18.71"/>
-    <col customWidth="1" min="5" max="5" width="12.0"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="9.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" ht="14.4">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>40.0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>160.0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>350.0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8" t="s">
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>350</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12">
-        <v>57.0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>57.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1000.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12">
-        <v>253.0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>695.0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1000.0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12">
-        <v>240.0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>394.0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1000.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12">
-        <v>212.0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>482.0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1000.0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="B8" s="7">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="7">
+        <v>253</v>
+      </c>
+      <c r="C9" s="7">
+        <v>695</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7">
+        <v>240</v>
+      </c>
+      <c r="C10" s="7">
+        <v>394</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7">
+        <v>212</v>
+      </c>
+      <c r="C11" s="7">
+        <v>482</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16">
-        <v>1316.0</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="7">
+        <v>1316</v>
+      </c>
+      <c r="C12" s="7">
         <f>2*((11*60)+43)</f>
         <v>1406</v>
       </c>
-      <c r="D12" s="16">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>10000.0</v>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10000</v>
       </c>
       <c r="F12" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16">
-        <v>493.0</v>
-      </c>
-      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7">
+        <v>493</v>
+      </c>
+      <c r="C13" s="7">
         <f>((26*60)+12)*2</f>
         <v>3144</v>
       </c>
-      <c r="D13" s="16">
-        <v>40.0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>10000.0</v>
+      <c r="D13" s="7">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10000</v>
       </c>
       <c r="F13" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4">
       <c r="A14" s="14"/>
-      <c r="B14" s="16">
-        <v>467.0</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="7">
+        <v>467</v>
+      </c>
+      <c r="C14" s="7">
         <f>(53*60)+16</f>
         <v>3196</v>
       </c>
-      <c r="D14" s="16">
-        <v>60.0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>10000.0</v>
+      <c r="D14" s="7">
+        <v>60</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10000</v>
       </c>
       <c r="F14" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1794,17 +1847,15 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:F17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:F17"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>